--- a/hospital-project-excel/test_v3_out.xlsx
+++ b/hospital-project-excel/test_v3_out.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="200">
   <si>
     <t>MRI3</t>
   </si>
@@ -423,13 +423,13 @@
     <t>ENDO_CRNA5</t>
   </si>
   <si>
-    <t>ENDO_CRNA6</t>
+    <t>ENDO_resident1</t>
   </si>
   <si>
     <t>ENDO_attending3</t>
   </si>
   <si>
-    <t>ENDO_resident1</t>
+    <t>ENDO_resident2</t>
   </si>
   <si>
     <t>GSS_CRNA1</t>
@@ -444,25 +444,19 @@
     <t>GSS_CRNA3</t>
   </si>
   <si>
-    <t>GSS_attending2</t>
-  </si>
-  <si>
-    <t>GSS_CRNA4</t>
-  </si>
-  <si>
-    <t>GSS_CRNA5</t>
-  </si>
-  <si>
-    <t>GSS_CRNA6</t>
-  </si>
-  <si>
-    <t>GSS_attending3</t>
-  </si>
-  <si>
-    <t>GSS_CRNA7</t>
-  </si>
-  <si>
-    <t>GSS_CRNA8</t>
+    <t>GSS_solo1</t>
+  </si>
+  <si>
+    <t>GSS_solo2</t>
+  </si>
+  <si>
+    <t>GSS_solo3</t>
+  </si>
+  <si>
+    <t>GSS_solo4</t>
+  </si>
+  <si>
+    <t>GSS_solo5</t>
   </si>
   <si>
     <t>JHOC_CRNA1</t>
@@ -486,13 +480,10 @@
     <t>JHOC_resident1</t>
   </si>
   <si>
-    <t>JHOC_resident2</t>
-  </si>
-  <si>
-    <t>JHOC_attending3</t>
-  </si>
-  <si>
-    <t>JHOC_resident3</t>
+    <t>JHOC_solo1</t>
+  </si>
+  <si>
+    <t>JHOC_solo2</t>
   </si>
   <si>
     <t>Nel Bas_CRNA1</t>
@@ -525,31 +516,28 @@
     <t>WEINBERG_resident1</t>
   </si>
   <si>
+    <t>WEINBERG_attending2</t>
+  </si>
+  <si>
     <t>WEINBERG_resident2</t>
   </si>
   <si>
-    <t>WEINBERG_attending2</t>
-  </si>
-  <si>
     <t>WEINBERG_resident3</t>
   </si>
   <si>
+    <t>WEINBERG_attending3</t>
+  </si>
+  <si>
     <t>WEINBERG_resident4</t>
   </si>
   <si>
-    <t>WEINBERG_attending3</t>
-  </si>
-  <si>
-    <t>WEINBERG_resident5</t>
-  </si>
-  <si>
-    <t>WEINBERG_resident6</t>
-  </si>
-  <si>
-    <t>WEINBERG_attending4</t>
-  </si>
-  <si>
-    <t>WEINBERG_resident7</t>
+    <t>WEINBERG_solo1</t>
+  </si>
+  <si>
+    <t>WEINBERG_solo2</t>
+  </si>
+  <si>
+    <t>WEINBERG_solo3</t>
   </si>
   <si>
     <t>WILMER_CRNA1</t>
@@ -564,13 +552,13 @@
     <t>WILMER_CRNA3</t>
   </si>
   <si>
+    <t>WILMER_attending2</t>
+  </si>
+  <si>
     <t>WILMER_resident1</t>
   </si>
   <si>
-    <t>WILMER_attending2</t>
-  </si>
-  <si>
-    <t>WILMER_resident2</t>
+    <t>WILMER_solo1</t>
   </si>
   <si>
     <t>ZBOR 3_CRNA1</t>
@@ -636,13 +624,10 @@
     <t>ZBOR 3_resident12</t>
   </si>
   <si>
-    <t>ZBOR 3_resident13</t>
-  </si>
-  <si>
-    <t>ZBOR 3_attending8</t>
-  </si>
-  <si>
-    <t>ZBOR 3_resident14</t>
+    <t>ZBOR 3_solo1</t>
+  </si>
+  <si>
+    <t>ZBOR 3_solo2</t>
   </si>
 </sst>
 </file>
@@ -2404,10 +2389,10 @@
         <v>301</v>
       </c>
       <c r="B3" s="148" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="15">
@@ -2439,10 +2424,10 @@
         <v>302</v>
       </c>
       <c r="B4" s="148" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="20">
@@ -2474,10 +2459,10 @@
         <v>303</v>
       </c>
       <c r="B5" s="148" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="20">
@@ -2509,10 +2494,10 @@
         <v>304</v>
       </c>
       <c r="B6" s="148" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="20">
@@ -2629,10 +2614,10 @@
         <v>308</v>
       </c>
       <c r="B10" s="148" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="20">
@@ -2662,10 +2647,10 @@
         <v>309</v>
       </c>
       <c r="B11" s="148" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="20" t="s">
@@ -2695,10 +2680,10 @@
         <v>310</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="20">
@@ -2724,10 +2709,10 @@
         <v>311</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="20">
@@ -2754,10 +2739,10 @@
         <v>312</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="20">
@@ -2789,10 +2774,10 @@
         <v>314</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="20">
@@ -2805,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="149" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" s="150" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="139"/>
@@ -2820,10 +2805,10 @@
         <v>315</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="39"/>
@@ -2836,10 +2821,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K16" s="143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="139"/>
@@ -2851,10 +2836,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="112"/>
@@ -2867,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K17" s="157" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="139"/>
@@ -2882,10 +2867,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="141" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C18" s="165" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="11"/>
@@ -2900,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="J18" s="158" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K18" s="157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="139"/>
@@ -2917,10 +2902,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="45">
@@ -2933,10 +2918,10 @@
         <v>5</v>
       </c>
       <c r="J19" s="158" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K19" s="157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="139"/>
@@ -2947,11 +2932,9 @@
       <c r="A20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>202</v>
-      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="46">
@@ -2963,11 +2946,9 @@
       <c r="I20" s="38">
         <v>6</v>
       </c>
-      <c r="J20" s="158" t="s">
-        <v>152</v>
-      </c>
+      <c r="J20" s="158"/>
       <c r="K20" s="157" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="139"/>
@@ -2978,11 +2959,9 @@
       <c r="A21" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="166" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="46">
@@ -2994,11 +2973,9 @@
       <c r="I21" s="38">
         <v>7</v>
       </c>
-      <c r="J21" s="144" t="s">
-        <v>154</v>
-      </c>
+      <c r="J21" s="144"/>
       <c r="K21" s="143" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="139"/>
@@ -3122,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="64" t="s">
@@ -3142,10 +3119,10 @@
         <v>11</v>
       </c>
       <c r="B27" s="156" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" s="157" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="61">
@@ -3171,10 +3148,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="156" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C28" s="157" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="46">
@@ -3200,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="156" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C29" s="157" t="s">
         <v>162</v>
@@ -3216,10 +3193,10 @@
         <v>4</v>
       </c>
       <c r="J29" s="145" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K29" s="146" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="67" t="s">
@@ -3233,10 +3210,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="156" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="157" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="66" t="s">
@@ -3249,10 +3226,10 @@
         <v>5</v>
       </c>
       <c r="J30" s="145" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K30" s="146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="67" t="s">
@@ -3278,10 +3255,10 @@
         <v>6</v>
       </c>
       <c r="J31" s="145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K31" s="146" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="71" t="s">
@@ -3308,11 +3285,9 @@
       <c r="I32" s="58">
         <v>7</v>
       </c>
-      <c r="J32" s="147" t="s">
-        <v>180</v>
-      </c>
+      <c r="J32" s="147"/>
       <c r="K32" s="146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="73" t="s">
@@ -3436,10 +3411,10 @@
         <v>21</v>
       </c>
       <c r="B37" s="167" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" s="143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="61" t="s">
@@ -3455,7 +3430,7 @@
         <v>137</v>
       </c>
       <c r="K37" s="163" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="77" t="s">
@@ -3469,10 +3444,10 @@
         <v>22</v>
       </c>
       <c r="B38" s="142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="143" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="46" t="s">
@@ -3484,9 +3459,7 @@
       <c r="I38" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="J38" s="162" t="s">
-        <v>139</v>
-      </c>
+      <c r="J38" s="162"/>
       <c r="K38" s="163" t="s">
         <v>138</v>
       </c>
@@ -3501,11 +3474,9 @@
       <c r="A39" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="142" t="s">
-        <v>170</v>
-      </c>
+      <c r="B39" s="142"/>
       <c r="C39" s="143" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="45"/>
@@ -3517,11 +3488,9 @@
       <c r="I39" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="J39" s="162" t="s">
-        <v>140</v>
-      </c>
+      <c r="J39" s="162"/>
       <c r="K39" s="163" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="87" t="s">
@@ -3534,11 +3503,9 @@
       <c r="A40" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="145" t="s">
-        <v>171</v>
-      </c>
+      <c r="B40" s="145"/>
       <c r="C40" s="146" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="131"/>
@@ -3565,11 +3532,9 @@
       <c r="A41" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="168" t="s">
-        <v>173</v>
-      </c>
+      <c r="B41" s="168"/>
       <c r="C41" s="169" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="83"/>
@@ -3606,11 +3571,9 @@
       <c r="I42" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="J42" s="158" t="s">
-        <v>141</v>
-      </c>
+      <c r="J42" s="158"/>
       <c r="K42" s="157" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="95" t="s">
@@ -3635,11 +3598,9 @@
       <c r="I43" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="J43" s="147" t="s">
-        <v>143</v>
-      </c>
+      <c r="J43" s="147"/>
       <c r="K43" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="95" t="s">
@@ -3664,9 +3625,7 @@
       <c r="I44" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="153" t="s">
-        <v>144</v>
-      </c>
+      <c r="J44" s="153"/>
       <c r="K44" s="154" t="s">
         <v>142</v>
       </c>
@@ -3684,10 +3643,10 @@
         <v>28</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="98" t="s">
@@ -3740,10 +3699,10 @@
         <v>27</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="98" t="s">
@@ -3769,10 +3728,10 @@
         <v>82</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="98" t="s">
